--- a/命名規範.xlsx
+++ b/命名規範.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>控件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,34 @@
   </si>
   <si>
     <t>字的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鈕大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長寬各45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>視窗大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1024*768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自訂控制項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120*230</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,28 +459,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -465,24 +498,42 @@
       <c r="E2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -490,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -498,43 +549,43 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>

--- a/命名規範.xlsx
+++ b/命名規範.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>控件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,7 +93,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120*230</t>
+    <t>高200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邊界5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +466,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -517,6 +521,9 @@
       </c>
       <c r="E3" t="s">
         <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">

--- a/命名規範.xlsx
+++ b/命名規範.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>控件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,14 @@
   </si>
   <si>
     <t>邊界5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txbl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +474,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -557,8 +565,12 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
